--- a/biology/Zoologie/Drymusa_serrana/Drymusa_serrana.xlsx
+++ b/biology/Zoologie/Drymusa_serrana/Drymusa_serrana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Drymusa serrana est une espèce d'araignées aranéomorphes de la famille des Drymusidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Drymusa serrana est une espèce d'araignées aranéomorphes de la famille des Drymusidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Argentine[1]. Elle se rencontre dans la province de Buenos Aires dans la Sierra de la Ventana et dans la province de San Luis vers Merlo[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Argentine. Elle se rencontre dans la province de Buenos Aires dans la Sierra de la Ventana et dans la province de San Luis vers Merlo.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 8,06 mm[3].
-La femelle décrite par Labarque et Ramírez et 2007 mesure 10,76 mm, les mâles mesurent de 6,30 à 9,13 mm et les femelles de 9,70 à 10,76 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 8,06 mm.
+La femelle décrite par Labarque et Ramírez et 2007 mesure 10,76 mm, les mâles mesurent de 6,30 à 9,13 mm et les femelles de 9,70 à 10,76 mm.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été décrite par Goloboff et Ramírez en 1992.
 </t>
@@ -605,7 +623,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence au lieu de sa découverte, une Sierra.
 </t>
@@ -636,7 +656,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Goloboff &amp; Ramírez, 1992 : « A new species of Drymusa (Araneae: Scytodidae) from Argentina. » Journal of the New York Entomological Society, vol. 99, p. 691-695.</t>
         </is>
